--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Desktop\pm演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11200" windowHeight="5770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Graph1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -139,56 +139,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>外部設計書</t>
-    <rPh sb="0" eb="4">
-      <t>ガイブセッケイ</t>
+    <t>完了ポイント合計</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部設計書</t>
-    <rPh sb="0" eb="5">
-      <t>ナイブセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#4</t>
-  </si>
-  <si>
-    <t>#5</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>実績</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理想</t>
-    <rPh sb="0" eb="2">
-      <t>リソウ</t>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,7 +283,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -428,7 +383,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-009F-4497-B35F-232C63F5F3F6}"/>
+              <c16:uniqueId val="{00000000-B4ED-4E9F-A58E-43485BAF890D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -445,94 +400,6 @@
         <c:axId val="596430160"/>
         <c:axId val="596424584"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>理想</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-009F-4497-B35F-232C63F5F3F6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="596430160"/>
-        <c:axId val="596424584"/>
-      </c:lineChart>
       <c:catAx>
         <c:axId val="596430160"/>
         <c:scaling>
@@ -561,7 +428,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>時間</a:t>
+                  <a:t>日付</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -770,7 +637,569 @@
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>バーンダウンチャート</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積もりポイント数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$F$1:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$1:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B14E-4EDD-B770-A2034BB7CB32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>完了ポイント合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B14E-4EDD-B770-A2034BB7CB32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="544341736"/>
+        <c:axId val="544342064"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="544341736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>マイルストーン</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544342064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="544342064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>理想時間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544341736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -814,6 +1243,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1317,29 +1786,534 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9288843" cy="6077107"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C4D4F5-771E-4238-93FD-A057E61E9CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1352,7 +2326,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1398,12 +2372,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.15005</cdr:x>
-      <cdr:y>0.79513</cdr:y>
+      <cdr:x>0.15731</cdr:x>
+      <cdr:y>0.77423</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21708</cdr:x>
-      <cdr:y>0.86145</cdr:y>
+      <cdr:x>0.31703</cdr:x>
+      <cdr:y>0.90372</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1418,8 +2392,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1378257" y="4415393"/>
-          <a:ext cx="615689" cy="368280"/>
+          <a:off x="809614" y="2232017"/>
+          <a:ext cx="822038" cy="373326"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1527,12 +2501,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78285</cdr:x>
-      <cdr:y>0.8036</cdr:y>
+      <cdr:x>0.80255</cdr:x>
+      <cdr:y>0.77604</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.84964</cdr:x>
-      <cdr:y>0.87992</cdr:y>
+      <cdr:x>0.9456</cdr:x>
+      <cdr:y>0.88395</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1547,8 +2521,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7190668" y="3888375"/>
-          <a:ext cx="613483" cy="369300"/>
+          <a:off x="4130457" y="2237241"/>
+          <a:ext cx="736260" cy="311104"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1580,12 +2554,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.2677</cdr:x>
-      <cdr:y>0.81389</cdr:y>
+      <cdr:x>0.27081</cdr:x>
+      <cdr:y>0.77981</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28759</cdr:x>
-      <cdr:y>0.87467</cdr:y>
+      <cdr:x>0.36764</cdr:x>
+      <cdr:y>0.85212</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1600,8 +2574,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2458885" y="4519610"/>
-          <a:ext cx="182695" cy="337516"/>
+          <a:off x="2790173" y="3382089"/>
+          <a:ext cx="997603" cy="313612"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1612,8 +2586,12 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スプリント</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#1</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1622,12 +2600,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35835</cdr:x>
-      <cdr:y>0.81005</cdr:y>
+      <cdr:x>0.39569</cdr:x>
+      <cdr:y>0.78477</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.39128</cdr:x>
-      <cdr:y>0.88236</cdr:y>
+      <cdr:x>0.49251</cdr:x>
+      <cdr:y>0.85708</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1642,8 +2620,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3291584" y="4498254"/>
-          <a:ext cx="302471" cy="401543"/>
+          <a:off x="4076700" y="3403600"/>
+          <a:ext cx="997603" cy="313612"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1718,8 +2696,12 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スプリント</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#2</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1728,12 +2710,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.43647</cdr:x>
-      <cdr:y>0.80788</cdr:y>
+      <cdr:x>0.53498</cdr:x>
+      <cdr:y>0.78038</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.46699</cdr:x>
-      <cdr:y>0.88019</cdr:y>
+      <cdr:x>0.6318</cdr:x>
+      <cdr:y>0.85269</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1748,8 +2730,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4009065" y="4486230"/>
-          <a:ext cx="280334" cy="401543"/>
+          <a:off x="5511800" y="3384550"/>
+          <a:ext cx="997603" cy="313612"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1824,8 +2806,12 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スプリント</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#3</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1834,12 +2820,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.51777</cdr:x>
-      <cdr:y>0.80395</cdr:y>
+      <cdr:x>0.66502</cdr:x>
+      <cdr:y>0.78331</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54891</cdr:x>
-      <cdr:y>0.87626</cdr:y>
+      <cdr:x>0.76185</cdr:x>
+      <cdr:y>0.85562</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1854,8 +2840,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4755828" y="4464401"/>
-          <a:ext cx="286029" cy="401542"/>
+          <a:off x="6851650" y="3397250"/>
+          <a:ext cx="997603" cy="313612"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1930,224 +2916,60 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#4</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スプリント</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.6086</cdr:x>
-      <cdr:y>0.80517</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.6412</cdr:x>
-      <cdr:y>0.87748</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="11" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6416296D-30C6-4E47-9402-DCCD7AB3AE19}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5590180" y="4471181"/>
-          <a:ext cx="299440" cy="401543"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#5</a:t>
+            <a:t>n</a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.69097</cdr:x>
-      <cdr:y>0.804</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.7252</cdr:x>
-      <cdr:y>0.8624</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="12" name="テキスト ボックス 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6416296D-30C6-4E47-9402-DCCD7AB3AE19}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6346780" y="4464655"/>
-          <a:ext cx="314412" cy="324299"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>#6</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A63DC77-8967-4ED9-ACAB-84F0F938A5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,6 +3048,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2261,6 +3100,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2413,19 +3269,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -2433,14 +3289,8 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2450,14 +3300,8 @@
       <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2467,14 +3311,8 @@
       <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2484,14 +3322,8 @@
       <c r="C4" s="3">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2501,14 +3333,8 @@
       <c r="C5" s="3">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2518,14 +3344,8 @@
       <c r="C6" s="3">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2535,14 +3355,8 @@
       <c r="C7" s="3">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +3367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2564,65 +3378,218 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <f>B10+C9</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:C12" si="0">B11+C10</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUM(B2:B12)</f>
-        <v>94</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
@@ -2630,12 +3597,12 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>5</v>
       </c>
@@ -2653,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2669,7 +3636,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2685,7 +3652,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2701,7 +3668,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2717,7 +3684,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2733,7 +3700,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2749,7 +3716,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2765,7 +3732,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f>SUM(A1:A8)</f>
         <v>64</v>
@@ -2775,7 +3742,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -2783,405 +3750,405 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1"/>
     </row>
   </sheetData>

--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Desktop\pm演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3411,6 +3411,7 @@
   <cols>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11200" windowHeight="5770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -148,6 +148,69 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1週間20ポイント</t>
+    <rPh sb="1" eb="3">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=40時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ポイント＝2時間</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計</t>
+    <rPh sb="0" eb="4">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイルストーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了時間</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理想時間</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -204,13 +267,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,6 +766,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -761,60 +842,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$F$1:$F$7</c:f>
+              <c:f>Sheet3!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42867</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42881</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42895</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42902</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42916</c:v>
+                  <c:v>42914</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42930</c:v>
+                  <c:v>42928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42944</c:v>
+                  <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$1:$E$7</c:f>
+              <c:f>Sheet3!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +912,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
+              <c:f>Sheet3!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,27 +947,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$2:$D$7</c:f>
+              <c:f>Sheet3!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,6 +961,81 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-B14E-4EDD-B770-A2034BB7CB32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>理想時間</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC79-434D-92F8-808506005F0C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,6 +1085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1063,6 +1205,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1137,6 +1280,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2935,16 +3079,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3048,23 +3192,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3100,23 +3227,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3275,13 +3385,13 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.4140625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -3290,7 +3400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3312,7 +3422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3334,7 +3444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3356,7 +3466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3367,7 +3477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3387,7 +3497,7 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3401,20 +3511,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -3422,17 +3535,20 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42867</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3440,19 +3556,24 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
+        <f>B2</f>
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1">
-        <v>42881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1">
+        <v>42872</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>$B$13</f>
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3460,19 +3581,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
+        <f>B3+C2</f>
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1">
-        <v>42895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1">
+        <v>42888</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">$B$13</f>
+        <v>94</v>
+      </c>
+      <c r="H3">
+        <f>IF(H2+20&lt;G3,H2+20,G3)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3480,19 +3604,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" ref="C4:C12" si="1">B4+C3</f>
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>64</v>
-      </c>
-      <c r="F4" s="1">
-        <v>42902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1">
+        <v>42893</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H8" si="2">IF(H3+20&lt;G4,H3+20,G4)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3500,19 +3627,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1">
+        <v>42900</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3520,19 +3650,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>64</v>
-      </c>
-      <c r="F6" s="1">
-        <v>42930</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1">
+        <v>42914</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3540,19 +3673,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1">
-        <v>42944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1">
+        <v>42928</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3560,10 +3696,22 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="1">
+        <v>42935</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3571,22 +3719,74 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <f>SUM(B2:B12)</f>
+        <v>94</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3598,12 +3798,12 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>5</v>
       </c>
@@ -3621,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>11</v>
       </c>
@@ -3637,7 +3837,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>10</v>
       </c>
@@ -3653,7 +3853,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>15</v>
       </c>
@@ -3669,7 +3869,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3685,7 +3885,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3701,7 +3901,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>12</v>
       </c>
@@ -3717,7 +3917,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3733,7 +3933,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <f>SUM(A1:A8)</f>
         <v>64</v>
@@ -3743,7 +3943,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -3751,405 +3951,405 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" s="1"/>
     </row>
   </sheetData>

--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Graph2" sheetId="6" r:id="rId2"/>
+    <sheet name="最終形態" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -149,27 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1週間20ポイント</t>
-    <rPh sb="1" eb="3">
-      <t>シュウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=40時間</t>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1ポイント＝2時間</t>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部設計</t>
     <rPh sb="0" eb="4">
       <t>ガイブセッケイ</t>
@@ -211,6 +191,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2週間20ポイント</t>
+    <rPh sb="1" eb="3">
+      <t>シュウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=80時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ポイント＝4時間</t>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベロシティ(開発速度）</t>
+    <rPh sb="6" eb="8">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -244,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,24 +278,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,7 +303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -363,6 +366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -761,7 +765,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>バーンダウンチャート</a:t>
+              <a:t>バーンアップチャート</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -807,7 +811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>最終形態!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -842,29 +846,32 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$E$2:$E$8</c:f>
+              <c:f>最終形態!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>42872</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>42888</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>42893</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>42900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>42914</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>42928</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>42935</c:v>
                 </c:pt>
               </c:numCache>
@@ -872,10 +879,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$2:$G$8</c:f>
+              <c:f>最終形態!$H$3:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -895,6 +902,9 @@
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -903,7 +913,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B14E-4EDD-B770-A2034BB7CB32}"/>
+              <c16:uniqueId val="{00000000-E24F-446D-B4D0-DFBC6DA3F179}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -912,7 +922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
+              <c:f>最終形態!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -945,13 +955,49 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>最終形態!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$F$2:$F$7</c:f>
+              <c:f>最終形態!$G$3:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -960,7 +1006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-B14E-4EDD-B770-A2034BB7CB32}"/>
+              <c16:uniqueId val="{00000001-E24F-446D-B4D0-DFBC6DA3F179}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -969,7 +1015,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$H$1</c:f>
+              <c:f>最終形態!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1002,31 +1048,67 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>最終形態!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$2:$H$8</c:f>
+              <c:f>最終形態!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
@@ -1035,7 +1117,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC79-434D-92F8-808506005F0C}"/>
+              <c16:uniqueId val="{00000002-E24F-446D-B4D0-DFBC6DA3F179}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1339,11 +1421,6 @@
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2431,6 +2508,18 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3077,29 +3166,15 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9288843" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A63DC77-8967-4ED9-ACAB-84F0F938A5E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3112,7 +3187,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3511,23 +3586,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="3.625" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -3535,20 +3610,8 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3559,21 +3622,20 @@
         <f>B2</f>
         <v>5</v>
       </c>
-      <c r="E2" s="1">
-        <v>42872</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <f>$B$13</f>
-        <v>94</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3584,19 +3646,21 @@
         <f>B3+C2</f>
         <v>16</v>
       </c>
-      <c r="E3" s="1">
-        <v>42888</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">$B$13</f>
+      <c r="F3" s="6">
+        <v>42858</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>$B$13</f>
         <v>94</v>
       </c>
-      <c r="H3">
-        <f>IF(H2+20&lt;G3,H2+20,G3)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3604,162 +3668,192 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C12" si="1">B4+C3</f>
+        <f>B4+C3</f>
         <v>26</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="6">
+        <v>42872</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <f>$B$13</f>
+        <v>94</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5+C4</f>
+        <v>41</v>
+      </c>
+      <c r="F5" s="6">
+        <v>42888</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H10" si="0">$B$13</f>
+        <v>94</v>
+      </c>
+      <c r="I5" s="3">
+        <f>IF(I4+20&lt;H5,I4+20,H5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <f>B6+C5</f>
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
         <v>42893</v>
       </c>
-      <c r="G4">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H8" si="2">IF(H3+20&lt;G4,H3+20,G4)</f>
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I10" si="1">IF(I5+20&lt;H6,I5+20,H6)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B7+C6</f>
+        <v>47</v>
+      </c>
+      <c r="F7" s="6">
         <v>42900</v>
       </c>
-      <c r="G5">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <f>B8+C7</f>
+        <v>59</v>
+      </c>
+      <c r="F8" s="6">
         <v>42914</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C9" s="3">
+        <f>B9+C8</f>
+        <v>64</v>
+      </c>
+      <c r="F9" s="6">
         <v>42928</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10+C9</f>
+        <v>74</v>
+      </c>
+      <c r="F10" s="6">
         <v>42935</v>
       </c>
-      <c r="G8">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <f>B11+C10</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <f>B12+C11</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3769,24 +3863,28 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>15</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Graph2" sheetId="6" r:id="rId2"/>
     <sheet name="最終形態" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>要件1</t>
     <rPh sb="0" eb="2">
@@ -213,11 +214,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ベロシティ(開発速度）</t>
-    <rPh sb="6" eb="8">
+    <t>5/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベロシティ（1スプリントにおける開発速度）</t>
+    <rPh sb="16" eb="18">
       <t>カイハツ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="18" eb="20">
       <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -303,10 +336,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,7 +399,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -845,37 +877,36 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>最終形態!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42858</c:v>
+                  <c:v>5/3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42872</c:v>
+                  <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42888</c:v>
+                  <c:v>6/2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42893</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42900</c:v>
+                  <c:v>6/14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42914</c:v>
+                  <c:v>6/28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42928</c:v>
+                  <c:v>7/12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -956,37 +987,36 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>最終形態!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42858</c:v>
+                  <c:v>5/3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42872</c:v>
+                  <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42888</c:v>
+                  <c:v>6/2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42893</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42900</c:v>
+                  <c:v>6/14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42914</c:v>
+                  <c:v>6/28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42928</c:v>
+                  <c:v>7/12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1049,37 +1079,36 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>最終形態!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>m"月"d"日"</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>42858</c:v>
+                  <c:v>5/3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42872</c:v>
+                  <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42888</c:v>
+                  <c:v>6/2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42893</c:v>
+                  <c:v>6/7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42900</c:v>
+                  <c:v>6/14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42914</c:v>
+                  <c:v>6/28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42928</c:v>
+                  <c:v>7/12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1134,7 +1163,7 @@
         <c:axId val="544341736"/>
         <c:axId val="544342064"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="544341736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1197,7 +1226,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1237,9 +1266,701 @@
         <c:crossAx val="544342064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="544342064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>理想時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ポイント）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544341736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>バーンアップチャート</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>最終形態!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積もりポイント数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>最終形態!$F$4:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5/17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6/7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6/28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>最終形態!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FD4-49C0-85F4-DCA0CCABC830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>最終形態!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>完了ポイント合計</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>最終形態!$F$4:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5/17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6/7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6/28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>最終形態!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FD4-49C0-85F4-DCA0CCABC830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>最終形態!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>理想時間</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>最終形態!$F$4:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5/17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6/2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6/7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6/14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6/28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7/12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>最終形態!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2FD4-49C0-85F4-DCA0CCABC830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="544341736"/>
+        <c:axId val="544342064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="544341736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>マイルストーン</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544342064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="544342064"/>
         <c:scaling>
@@ -1421,6 +2142,11 @@
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1504,6 +2230,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2008,6 +2774,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3191,6 +4460,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="5695949" y="400050"/>
+    <xdr:ext cx="9096376" cy="6053492"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3589,7 +4885,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3643,11 +4939,11 @@
         <v>11</v>
       </c>
       <c r="C3" s="3">
-        <f>B3+C2</f>
+        <f t="shared" ref="C3:C12" si="0">B3+C2</f>
         <v>16</v>
       </c>
-      <c r="F3" s="6">
-        <v>42858</v>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -3668,11 +4964,11 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <f>B4+C3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F4" s="6">
-        <v>42872</v>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
@@ -3693,15 +4989,15 @@
         <v>15</v>
       </c>
       <c r="C5" s="3">
-        <f>B5+C4</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="F5" s="6">
-        <v>42888</v>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H10" si="0">$B$13</f>
+        <f t="shared" ref="H5:H10" si="1">$B$13</f>
         <v>94</v>
       </c>
       <c r="I5" s="3">
@@ -3717,19 +5013,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <f>B6+C5</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F6" s="6">
-        <v>42893</v>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" ref="I6:I10" si="1">IF(I5+20&lt;H6,I5+20,H6)</f>
+        <f t="shared" ref="I6:I10" si="2">IF(I5+20&lt;H6,I5+20,H6)</f>
         <v>60</v>
       </c>
     </row>
@@ -3741,19 +5037,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>B7+C6</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7" s="6">
-        <v>42900</v>
+      <c r="F7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -3765,19 +5061,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <f>B8+C7</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F8" s="6">
-        <v>42914</v>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
     </row>
@@ -3789,67 +5085,67 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <f>B9+C8</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="F9" s="6">
-        <v>42928</v>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>10</v>
       </c>
       <c r="C10" s="3">
-        <f>B10+C9</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="F10" s="6">
-        <v>42935</v>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <f>B11+C10</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>B12+C11</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -3865,7 +5161,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -4457,4 +5753,18 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/バーンダウンチャート.xlsx
+++ b/バーンダウンチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11205" windowHeight="5775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -218,14 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6/2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6/7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>6/14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,6 +245,14 @@
     <rPh sb="18" eb="20">
       <t>ソクド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -888,10 +888,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6/14</c:v>
@@ -998,10 +998,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6/14</c:v>
@@ -1090,10 +1090,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6/14</c:v>
@@ -1502,7 +1502,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1585,10 +1584,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/14</c:v>
@@ -1692,10 +1691,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/14</c:v>
@@ -1781,10 +1780,10 @@
                   <c:v>5/17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6/2</c:v>
+                  <c:v>5/31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6/7</c:v>
+                  <c:v>6/9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6/14</c:v>
@@ -1887,7 +1886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2008,7 +2006,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2083,7 +2080,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3783,7 +3779,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -4884,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4943,7 +4939,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -4993,7 +4989,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
@@ -5017,7 +5013,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
@@ -5041,7 +5037,7 @@
         <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
@@ -5065,7 +5061,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
@@ -5089,7 +5085,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
@@ -5113,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
@@ -5161,7 +5157,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
